--- a/exploratory/benchmark.xlsx
+++ b/exploratory/benchmark.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nesh/Documents/repositories/ice4/exploratory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AD2589A-3145-A646-9FE6-8317D8071DFB}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{060A3EED-22E2-7043-BEB0-D17CB66CE5EC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="80" yWindow="460" windowWidth="25440" windowHeight="14480" xr2:uid="{6BA11D5E-83DD-8B48-A9CA-03F29C3AFC64}"/>
   </bookViews>
